--- a/doc/自动化测试用例.xlsx
+++ b/doc/自动化测试用例.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="功能测试用例" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>用例ID</t>
   </si>
@@ -60,10 +60,10 @@
     <t>1.在首页点击id为"js-signin-btn"z的登录按钮.
 2.在登录弹框中检查name为“email”的输入框状态
 3.在登录弹框中检查name为“password”的输入框状态
-4.在登录弹框中检查css-selector为“input.moco-btn”的按钮状态
+4.在登录弹框中检查class-name为“moco-btn”的按钮状态
 5.在name为“email”的输入框中输入正确的账号XXX
 6.在name为“password”的输入框中输入正确的密码
-7.点击css-selector为“input.moco-btn”的按钮
+7.点击class-name为“moco-btn”的按钮
 8.在首页中获取id为“header-avator”状态
 （9.在个人中心中获取用户信息）</t>
   </si>
@@ -71,12 +71,76 @@
     <t>1.首页显示登录弹框
 2.“email”的输入框状态正确
 3.name为“password”的输入框状态正确
-4.css-selector为“input.moco-btn”的按钮状态正确
+4.class-name为“moco-btn”的按钮状态正确
 5.name为“email”的输入框中信息正确
 6..name为“password”的输入框中密码正确
 7.登录成功，弹框关闭
 8.获取状态成功，用户信息正确
 （9.获取的用户账号信息与登录账号一致）</t>
+  </si>
+  <si>
+    <t>Buy-001</t>
+  </si>
+  <si>
+    <t>购物流程</t>
+  </si>
+  <si>
+    <t>冒烟测试
+-
+立即购买</t>
+  </si>
+  <si>
+    <t>系统正常运行
+且用户已经登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.打开url为“https://coding.imooc.com/class/446.html”的商品实战详情页
+2.点击id为“buy-trigger”立即购买按钮
+3.点击className为“js-pay-submit”的提交订单按钮
+</t>
+  </si>
+  <si>
+    <t>1.跳转到商品实战详情页
+2.跳转到url为“https://order.imooc.com/pay/confirm/goods_ids/1-446”的确认订单页面，商品信息正确
+3.跳转到支付中心页面</t>
+  </si>
+  <si>
+    <t>系统正常运行
+且用户已经登录，未购买</t>
+  </si>
+  <si>
+    <t>1.在商品详情页点击立即购买
+2.点击提交订单
+3.选择支付宝，点击立即支付
+4.在支付宝支付页面扫描支付</t>
+  </si>
+  <si>
+    <t>1.跳转到确认订到页面，且商品信息正确
+2.跳转到支付中心页面，且订单信息正确
+3.跳转到支付宝支付页面
+4.支付成功，跳转到支付成功页面，购买课程成功</t>
+  </si>
+  <si>
+    <t>Buy-002</t>
+  </si>
+  <si>
+    <t>冒烟测试
+-
+加入购物车后结算</t>
+  </si>
+  <si>
+    <t>1.在商品详情页点击加入购物车
+2.点击右上角购物车图标
+3.选中购买的课程，点击去结算
+3.选择支付宝，点击立即支付
+4.在支付宝支付页面扫描支付</t>
+  </si>
+  <si>
+    <t>1.购物车列表商品更新，右上角图标小红点数量+1
+2.跳转到我的购物车页面，课程信息正确
+3.跳转到支付中心，订单信息正确，购物车列表减去对应的课程
+3.跳转到支付宝支付页面
+4.支付成功，跳转到支付成功页面，购买课程成功</t>
   </si>
 </sst>
 </file>
@@ -85,9 +149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -744,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +818,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,10 +825,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1119,298 +1192,298 @@
   <sheetPr/>
   <dimension ref="A1:IW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="4" width="13.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="4" width="13.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="29" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:257">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="CA1" s="7"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="7"/>
-      <c r="CD1" s="7"/>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="7"/>
-      <c r="CH1" s="7"/>
-      <c r="CI1" s="7"/>
-      <c r="CJ1" s="7"/>
-      <c r="CK1" s="7"/>
-      <c r="CL1" s="7"/>
-      <c r="CM1" s="7"/>
-      <c r="CN1" s="7"/>
-      <c r="CO1" s="7"/>
-      <c r="CP1" s="7"/>
-      <c r="CQ1" s="7"/>
-      <c r="CR1" s="7"/>
-      <c r="CS1" s="7"/>
-      <c r="CT1" s="7"/>
-      <c r="CU1" s="7"/>
-      <c r="CV1" s="7"/>
-      <c r="CW1" s="7"/>
-      <c r="CX1" s="7"/>
-      <c r="CY1" s="7"/>
-      <c r="CZ1" s="7"/>
-      <c r="DA1" s="7"/>
-      <c r="DB1" s="7"/>
-      <c r="DC1" s="7"/>
-      <c r="DD1" s="7"/>
-      <c r="DE1" s="7"/>
-      <c r="DF1" s="7"/>
-      <c r="DG1" s="7"/>
-      <c r="DH1" s="7"/>
-      <c r="DI1" s="7"/>
-      <c r="DJ1" s="7"/>
-      <c r="DK1" s="7"/>
-      <c r="DL1" s="7"/>
-      <c r="DM1" s="7"/>
-      <c r="DN1" s="7"/>
-      <c r="DO1" s="7"/>
-      <c r="DP1" s="7"/>
-      <c r="DQ1" s="7"/>
-      <c r="DR1" s="7"/>
-      <c r="DS1" s="7"/>
-      <c r="DT1" s="7"/>
-      <c r="DU1" s="7"/>
-      <c r="DV1" s="7"/>
-      <c r="DW1" s="7"/>
-      <c r="DX1" s="7"/>
-      <c r="DY1" s="7"/>
-      <c r="DZ1" s="7"/>
-      <c r="EA1" s="7"/>
-      <c r="EB1" s="7"/>
-      <c r="EC1" s="7"/>
-      <c r="ED1" s="7"/>
-      <c r="EE1" s="7"/>
-      <c r="EF1" s="7"/>
-      <c r="EG1" s="7"/>
-      <c r="EH1" s="7"/>
-      <c r="EI1" s="7"/>
-      <c r="EJ1" s="7"/>
-      <c r="EK1" s="7"/>
-      <c r="EL1" s="7"/>
-      <c r="EM1" s="7"/>
-      <c r="EN1" s="7"/>
-      <c r="EO1" s="7"/>
-      <c r="EP1" s="7"/>
-      <c r="EQ1" s="7"/>
-      <c r="ER1" s="7"/>
-      <c r="ES1" s="7"/>
-      <c r="ET1" s="7"/>
-      <c r="EU1" s="7"/>
-      <c r="EV1" s="7"/>
-      <c r="EW1" s="7"/>
-      <c r="EX1" s="7"/>
-      <c r="EY1" s="7"/>
-      <c r="EZ1" s="7"/>
-      <c r="FA1" s="7"/>
-      <c r="FB1" s="7"/>
-      <c r="FC1" s="7"/>
-      <c r="FD1" s="7"/>
-      <c r="FE1" s="7"/>
-      <c r="FF1" s="7"/>
-      <c r="FG1" s="7"/>
-      <c r="FH1" s="7"/>
-      <c r="FI1" s="7"/>
-      <c r="FJ1" s="7"/>
-      <c r="FK1" s="7"/>
-      <c r="FL1" s="7"/>
-      <c r="FM1" s="7"/>
-      <c r="FN1" s="7"/>
-      <c r="FO1" s="7"/>
-      <c r="FP1" s="7"/>
-      <c r="FQ1" s="7"/>
-      <c r="FR1" s="7"/>
-      <c r="FS1" s="7"/>
-      <c r="FT1" s="7"/>
-      <c r="FU1" s="7"/>
-      <c r="FV1" s="7"/>
-      <c r="FW1" s="7"/>
-      <c r="FX1" s="7"/>
-      <c r="FY1" s="7"/>
-      <c r="FZ1" s="7"/>
-      <c r="GA1" s="7"/>
-      <c r="GB1" s="7"/>
-      <c r="GC1" s="7"/>
-      <c r="GD1" s="7"/>
-      <c r="GE1" s="7"/>
-      <c r="GF1" s="7"/>
-      <c r="GG1" s="7"/>
-      <c r="GH1" s="7"/>
-      <c r="GI1" s="7"/>
-      <c r="GJ1" s="7"/>
-      <c r="GK1" s="7"/>
-      <c r="GL1" s="7"/>
-      <c r="GM1" s="7"/>
-      <c r="GN1" s="7"/>
-      <c r="GO1" s="7"/>
-      <c r="GP1" s="7"/>
-      <c r="GQ1" s="7"/>
-      <c r="GR1" s="7"/>
-      <c r="GS1" s="7"/>
-      <c r="GT1" s="7"/>
-      <c r="GU1" s="7"/>
-      <c r="GV1" s="7"/>
-      <c r="GW1" s="7"/>
-      <c r="GX1" s="7"/>
-      <c r="GY1" s="7"/>
-      <c r="GZ1" s="7"/>
-      <c r="HA1" s="7"/>
-      <c r="HB1" s="7"/>
-      <c r="HC1" s="7"/>
-      <c r="HD1" s="7"/>
-      <c r="HE1" s="7"/>
-      <c r="HF1" s="7"/>
-      <c r="HG1" s="7"/>
-      <c r="HH1" s="7"/>
-      <c r="HI1" s="7"/>
-      <c r="HJ1" s="7"/>
-      <c r="HK1" s="7"/>
-      <c r="HL1" s="7"/>
-      <c r="HM1" s="7"/>
-      <c r="HN1" s="7"/>
-      <c r="HO1" s="7"/>
-      <c r="HP1" s="7"/>
-      <c r="HQ1" s="7"/>
-      <c r="HR1" s="7"/>
-      <c r="HS1" s="7"/>
-      <c r="HT1" s="7"/>
-      <c r="HU1" s="7"/>
-      <c r="HV1" s="7"/>
-      <c r="HW1" s="7"/>
-      <c r="HX1" s="7"/>
-      <c r="HY1" s="7"/>
-      <c r="HZ1" s="7"/>
-      <c r="IA1" s="7"/>
-      <c r="IB1" s="7"/>
-      <c r="IC1" s="7"/>
-      <c r="ID1" s="7"/>
-      <c r="IE1" s="7"/>
-      <c r="IF1" s="7"/>
-      <c r="IG1" s="7"/>
-      <c r="IH1" s="7"/>
-      <c r="II1" s="7"/>
-      <c r="IJ1" s="7"/>
-      <c r="IK1" s="7"/>
-      <c r="IL1" s="7"/>
-      <c r="IM1" s="7"/>
-      <c r="IN1" s="7"/>
-      <c r="IO1" s="7"/>
-      <c r="IP1" s="7"/>
-      <c r="IQ1" s="7"/>
-      <c r="IR1" s="7"/>
-      <c r="IS1" s="7"/>
-      <c r="IT1" s="7"/>
-      <c r="IU1" s="7"/>
-      <c r="IV1" s="7"/>
-      <c r="IW1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="9"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="9"/>
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CN1" s="9"/>
+      <c r="CO1" s="9"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
+      <c r="CR1" s="9"/>
+      <c r="CS1" s="9"/>
+      <c r="CT1" s="9"/>
+      <c r="CU1" s="9"/>
+      <c r="CV1" s="9"/>
+      <c r="CW1" s="9"/>
+      <c r="CX1" s="9"/>
+      <c r="CY1" s="9"/>
+      <c r="CZ1" s="9"/>
+      <c r="DA1" s="9"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="9"/>
+      <c r="DD1" s="9"/>
+      <c r="DE1" s="9"/>
+      <c r="DF1" s="9"/>
+      <c r="DG1" s="9"/>
+      <c r="DH1" s="9"/>
+      <c r="DI1" s="9"/>
+      <c r="DJ1" s="9"/>
+      <c r="DK1" s="9"/>
+      <c r="DL1" s="9"/>
+      <c r="DM1" s="9"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="9"/>
+      <c r="DP1" s="9"/>
+      <c r="DQ1" s="9"/>
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="9"/>
+      <c r="DX1" s="9"/>
+      <c r="DY1" s="9"/>
+      <c r="DZ1" s="9"/>
+      <c r="EA1" s="9"/>
+      <c r="EB1" s="9"/>
+      <c r="EC1" s="9"/>
+      <c r="ED1" s="9"/>
+      <c r="EE1" s="9"/>
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="9"/>
+      <c r="EH1" s="9"/>
+      <c r="EI1" s="9"/>
+      <c r="EJ1" s="9"/>
+      <c r="EK1" s="9"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="9"/>
+      <c r="EN1" s="9"/>
+      <c r="EO1" s="9"/>
+      <c r="EP1" s="9"/>
+      <c r="EQ1" s="9"/>
+      <c r="ER1" s="9"/>
+      <c r="ES1" s="9"/>
+      <c r="ET1" s="9"/>
+      <c r="EU1" s="9"/>
+      <c r="EV1" s="9"/>
+      <c r="EW1" s="9"/>
+      <c r="EX1" s="9"/>
+      <c r="EY1" s="9"/>
+      <c r="EZ1" s="9"/>
+      <c r="FA1" s="9"/>
+      <c r="FB1" s="9"/>
+      <c r="FC1" s="9"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="9"/>
+      <c r="FF1" s="9"/>
+      <c r="FG1" s="9"/>
+      <c r="FH1" s="9"/>
+      <c r="FI1" s="9"/>
+      <c r="FJ1" s="9"/>
+      <c r="FK1" s="9"/>
+      <c r="FL1" s="9"/>
+      <c r="FM1" s="9"/>
+      <c r="FN1" s="9"/>
+      <c r="FO1" s="9"/>
+      <c r="FP1" s="9"/>
+      <c r="FQ1" s="9"/>
+      <c r="FR1" s="9"/>
+      <c r="FS1" s="9"/>
+      <c r="FT1" s="9"/>
+      <c r="FU1" s="9"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="9"/>
+      <c r="FX1" s="9"/>
+      <c r="FY1" s="9"/>
+      <c r="FZ1" s="9"/>
+      <c r="GA1" s="9"/>
+      <c r="GB1" s="9"/>
+      <c r="GC1" s="9"/>
+      <c r="GD1" s="9"/>
+      <c r="GE1" s="9"/>
+      <c r="GF1" s="9"/>
+      <c r="GG1" s="9"/>
+      <c r="GH1" s="9"/>
+      <c r="GI1" s="9"/>
+      <c r="GJ1" s="9"/>
+      <c r="GK1" s="9"/>
+      <c r="GL1" s="9"/>
+      <c r="GM1" s="9"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="9"/>
+      <c r="GP1" s="9"/>
+      <c r="GQ1" s="9"/>
+      <c r="GR1" s="9"/>
+      <c r="GS1" s="9"/>
+      <c r="GT1" s="9"/>
+      <c r="GU1" s="9"/>
+      <c r="GV1" s="9"/>
+      <c r="GW1" s="9"/>
+      <c r="GX1" s="9"/>
+      <c r="GY1" s="9"/>
+      <c r="GZ1" s="9"/>
+      <c r="HA1" s="9"/>
+      <c r="HB1" s="9"/>
+      <c r="HC1" s="9"/>
+      <c r="HD1" s="9"/>
+      <c r="HE1" s="9"/>
+      <c r="HF1" s="9"/>
+      <c r="HG1" s="9"/>
+      <c r="HH1" s="9"/>
+      <c r="HI1" s="9"/>
+      <c r="HJ1" s="9"/>
+      <c r="HK1" s="9"/>
+      <c r="HL1" s="9"/>
+      <c r="HM1" s="9"/>
+      <c r="HN1" s="9"/>
+      <c r="HO1" s="9"/>
+      <c r="HP1" s="9"/>
+      <c r="HQ1" s="9"/>
+      <c r="HR1" s="9"/>
+      <c r="HS1" s="9"/>
+      <c r="HT1" s="9"/>
+      <c r="HU1" s="9"/>
+      <c r="HV1" s="9"/>
+      <c r="HW1" s="9"/>
+      <c r="HX1" s="9"/>
+      <c r="HY1" s="9"/>
+      <c r="HZ1" s="9"/>
+      <c r="IA1" s="9"/>
+      <c r="IB1" s="9"/>
+      <c r="IC1" s="9"/>
+      <c r="ID1" s="9"/>
+      <c r="IE1" s="9"/>
+      <c r="IF1" s="9"/>
+      <c r="IG1" s="9"/>
+      <c r="IH1" s="9"/>
+      <c r="II1" s="9"/>
+      <c r="IJ1" s="9"/>
+      <c r="IK1" s="9"/>
+      <c r="IL1" s="9"/>
+      <c r="IM1" s="9"/>
+      <c r="IN1" s="9"/>
+      <c r="IO1" s="9"/>
+      <c r="IP1" s="9"/>
+      <c r="IQ1" s="9"/>
+      <c r="IR1" s="9"/>
+      <c r="IS1" s="9"/>
+      <c r="IT1" s="9"/>
+      <c r="IU1" s="9"/>
+      <c r="IV1" s="9"/>
+      <c r="IW1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="219" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1432,7 +1505,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="3" s="2" customFormat="1" ht="116" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1"/>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1"/>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1"/>
@@ -1491,14 +1583,340 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:IW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="6" max="6" width="53.875" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:257">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="9"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="9"/>
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CN1" s="9"/>
+      <c r="CO1" s="9"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
+      <c r="CR1" s="9"/>
+      <c r="CS1" s="9"/>
+      <c r="CT1" s="9"/>
+      <c r="CU1" s="9"/>
+      <c r="CV1" s="9"/>
+      <c r="CW1" s="9"/>
+      <c r="CX1" s="9"/>
+      <c r="CY1" s="9"/>
+      <c r="CZ1" s="9"/>
+      <c r="DA1" s="9"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="9"/>
+      <c r="DD1" s="9"/>
+      <c r="DE1" s="9"/>
+      <c r="DF1" s="9"/>
+      <c r="DG1" s="9"/>
+      <c r="DH1" s="9"/>
+      <c r="DI1" s="9"/>
+      <c r="DJ1" s="9"/>
+      <c r="DK1" s="9"/>
+      <c r="DL1" s="9"/>
+      <c r="DM1" s="9"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="9"/>
+      <c r="DP1" s="9"/>
+      <c r="DQ1" s="9"/>
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="9"/>
+      <c r="DX1" s="9"/>
+      <c r="DY1" s="9"/>
+      <c r="DZ1" s="9"/>
+      <c r="EA1" s="9"/>
+      <c r="EB1" s="9"/>
+      <c r="EC1" s="9"/>
+      <c r="ED1" s="9"/>
+      <c r="EE1" s="9"/>
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="9"/>
+      <c r="EH1" s="9"/>
+      <c r="EI1" s="9"/>
+      <c r="EJ1" s="9"/>
+      <c r="EK1" s="9"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="9"/>
+      <c r="EN1" s="9"/>
+      <c r="EO1" s="9"/>
+      <c r="EP1" s="9"/>
+      <c r="EQ1" s="9"/>
+      <c r="ER1" s="9"/>
+      <c r="ES1" s="9"/>
+      <c r="ET1" s="9"/>
+      <c r="EU1" s="9"/>
+      <c r="EV1" s="9"/>
+      <c r="EW1" s="9"/>
+      <c r="EX1" s="9"/>
+      <c r="EY1" s="9"/>
+      <c r="EZ1" s="9"/>
+      <c r="FA1" s="9"/>
+      <c r="FB1" s="9"/>
+      <c r="FC1" s="9"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="9"/>
+      <c r="FF1" s="9"/>
+      <c r="FG1" s="9"/>
+      <c r="FH1" s="9"/>
+      <c r="FI1" s="9"/>
+      <c r="FJ1" s="9"/>
+      <c r="FK1" s="9"/>
+      <c r="FL1" s="9"/>
+      <c r="FM1" s="9"/>
+      <c r="FN1" s="9"/>
+      <c r="FO1" s="9"/>
+      <c r="FP1" s="9"/>
+      <c r="FQ1" s="9"/>
+      <c r="FR1" s="9"/>
+      <c r="FS1" s="9"/>
+      <c r="FT1" s="9"/>
+      <c r="FU1" s="9"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="9"/>
+      <c r="FX1" s="9"/>
+      <c r="FY1" s="9"/>
+      <c r="FZ1" s="9"/>
+      <c r="GA1" s="9"/>
+      <c r="GB1" s="9"/>
+      <c r="GC1" s="9"/>
+      <c r="GD1" s="9"/>
+      <c r="GE1" s="9"/>
+      <c r="GF1" s="9"/>
+      <c r="GG1" s="9"/>
+      <c r="GH1" s="9"/>
+      <c r="GI1" s="9"/>
+      <c r="GJ1" s="9"/>
+      <c r="GK1" s="9"/>
+      <c r="GL1" s="9"/>
+      <c r="GM1" s="9"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="9"/>
+      <c r="GP1" s="9"/>
+      <c r="GQ1" s="9"/>
+      <c r="GR1" s="9"/>
+      <c r="GS1" s="9"/>
+      <c r="GT1" s="9"/>
+      <c r="GU1" s="9"/>
+      <c r="GV1" s="9"/>
+      <c r="GW1" s="9"/>
+      <c r="GX1" s="9"/>
+      <c r="GY1" s="9"/>
+      <c r="GZ1" s="9"/>
+      <c r="HA1" s="9"/>
+      <c r="HB1" s="9"/>
+      <c r="HC1" s="9"/>
+      <c r="HD1" s="9"/>
+      <c r="HE1" s="9"/>
+      <c r="HF1" s="9"/>
+      <c r="HG1" s="9"/>
+      <c r="HH1" s="9"/>
+      <c r="HI1" s="9"/>
+      <c r="HJ1" s="9"/>
+      <c r="HK1" s="9"/>
+      <c r="HL1" s="9"/>
+      <c r="HM1" s="9"/>
+      <c r="HN1" s="9"/>
+      <c r="HO1" s="9"/>
+      <c r="HP1" s="9"/>
+      <c r="HQ1" s="9"/>
+      <c r="HR1" s="9"/>
+      <c r="HS1" s="9"/>
+      <c r="HT1" s="9"/>
+      <c r="HU1" s="9"/>
+      <c r="HV1" s="9"/>
+      <c r="HW1" s="9"/>
+      <c r="HX1" s="9"/>
+      <c r="HY1" s="9"/>
+      <c r="HZ1" s="9"/>
+      <c r="IA1" s="9"/>
+      <c r="IB1" s="9"/>
+      <c r="IC1" s="9"/>
+      <c r="ID1" s="9"/>
+      <c r="IE1" s="9"/>
+      <c r="IF1" s="9"/>
+      <c r="IG1" s="9"/>
+      <c r="IH1" s="9"/>
+      <c r="II1" s="9"/>
+      <c r="IJ1" s="9"/>
+      <c r="IK1" s="9"/>
+      <c r="IL1" s="9"/>
+      <c r="IM1" s="9"/>
+      <c r="IN1" s="9"/>
+      <c r="IO1" s="9"/>
+      <c r="IP1" s="9"/>
+      <c r="IQ1" s="9"/>
+      <c r="IR1" s="9"/>
+      <c r="IS1" s="9"/>
+      <c r="IT1" s="9"/>
+      <c r="IU1" s="9"/>
+      <c r="IV1" s="9"/>
+      <c r="IW1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="82" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="96" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
